--- a/projects/StudentsGrades.xlsx
+++ b/projects/StudentsGrades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Clases 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T Irvin Pineda\Desktop\Excel-Simulator2\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBDD4BF-32FA-4E87-9C33-BB15792B7A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DB5079-B6BA-4F58-80DE-6F8A10DC2A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{903102E8-0BF7-4B6F-95F7-983C81779B7E}"/>
+    <workbookView xWindow="0" yWindow="2340" windowWidth="20490" windowHeight="8130" activeTab="1" xr2:uid="{903102E8-0BF7-4B6F-95F7-983C81779B7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Grades" sheetId="1" r:id="rId1"/>
@@ -332,7 +332,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -450,14 +450,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -637,6 +637,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3055-4E00-B9C1-27FBEB39F75A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -657,6 +662,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-3055-4E00-B9C1-27FBEB39F75A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -677,6 +687,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-3055-4E00-B9C1-27FBEB39F75A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -699,6 +714,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-3055-4E00-B9C1-27FBEB39F75A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1810,7 +1830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95789331-EE89-47A2-9727-76BDAEC3E98B}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:A36"/>
     </sheetView>
   </sheetViews>
@@ -2865,7 +2885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82208195-E7AB-4D91-8130-3F882C271AB9}">
   <dimension ref="A1:AA34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -2883,7 +2903,7 @@
       </c>
       <c r="AA1" s="6">
         <f ca="1">TODAY()</f>
-        <v>45394</v>
+        <v>45586</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
@@ -2892,7 +2912,7 @@
       </c>
       <c r="B2" s="7" t="str">
         <f ca="1">TEXT(AA1,"dddd")</f>
-        <v>Friday</v>
+        <v>Monday</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
@@ -3153,7 +3173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F3A244-2F43-4890-BA10-923DA94BE721}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
@@ -3179,7 +3199,7 @@
       <c r="A2" s="9">
         <v>928681</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="15">
         <v>0.88</v>
       </c>
       <c r="D2" t="s">
@@ -3194,7 +3214,7 @@
       <c r="A3" s="9">
         <v>942399</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="15">
         <v>0.88</v>
       </c>
       <c r="D3" t="s">
@@ -3209,13 +3229,13 @@
       <c r="A4" s="9">
         <v>943252</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="15">
         <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <f>AVERAGE(B2:B31)</f>
         <v>0.90999999999999992</v>
       </c>
@@ -3224,7 +3244,7 @@
       <c r="A5" s="9">
         <v>948256</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <v>0.9</v>
       </c>
     </row>
@@ -3232,19 +3252,19 @@
       <c r="A6" s="9">
         <v>949964</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <v>0.94</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="14"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>930820</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="15">
         <v>0.85</v>
       </c>
       <c r="D7" t="s">
@@ -3258,7 +3278,7 @@
       <c r="A8" s="9">
         <v>942194</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="15">
         <v>0.98</v>
       </c>
       <c r="D8" t="s">
@@ -3272,7 +3292,7 @@
       <c r="A9" s="9">
         <v>967334</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="15">
         <v>0.95</v>
       </c>
       <c r="D9" t="s">
@@ -3286,7 +3306,7 @@
       <c r="A10" s="9">
         <v>909392</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="15">
         <v>0.88</v>
       </c>
     </row>
@@ -3294,7 +3314,7 @@
       <c r="A11" s="9">
         <v>909326</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="15">
         <v>0.99</v>
       </c>
     </row>
@@ -3302,7 +3322,7 @@
       <c r="A12" s="9">
         <v>972850</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="15">
         <v>0.97</v>
       </c>
     </row>
@@ -3310,7 +3330,7 @@
       <c r="A13" s="9">
         <v>964625</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="15">
         <v>0.84</v>
       </c>
     </row>
@@ -3318,7 +3338,7 @@
       <c r="A14" s="9">
         <v>963629</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="15">
         <v>0.9</v>
       </c>
     </row>
@@ -3326,7 +3346,7 @@
       <c r="A15" s="9">
         <v>918475</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="15">
         <v>0.85</v>
       </c>
     </row>
@@ -3334,7 +3354,7 @@
       <c r="A16" s="9">
         <v>975522</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="15">
         <v>0.84</v>
       </c>
     </row>
@@ -3342,7 +3362,7 @@
       <c r="A17" s="9">
         <v>948257</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="15">
         <v>1</v>
       </c>
     </row>
@@ -3350,7 +3370,7 @@
       <c r="A18" s="9">
         <v>925671</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="15">
         <v>0.99</v>
       </c>
     </row>
@@ -3358,7 +3378,7 @@
       <c r="A19" s="9">
         <v>937153</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="15">
         <v>0.84</v>
       </c>
     </row>
@@ -3366,7 +3386,7 @@
       <c r="A20" s="9">
         <v>908827</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="15">
         <v>0.88</v>
       </c>
     </row>
@@ -3374,7 +3394,7 @@
       <c r="A21" s="9">
         <v>930810</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="15">
         <v>0.99</v>
       </c>
     </row>
@@ -3382,7 +3402,7 @@
       <c r="A22" s="9">
         <v>963888</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="15">
         <v>0.97</v>
       </c>
     </row>
@@ -3390,7 +3410,7 @@
       <c r="A23" s="9">
         <v>942344</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="15">
         <v>0.82</v>
       </c>
     </row>
@@ -3398,7 +3418,7 @@
       <c r="A24" s="9">
         <v>927169</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="15">
         <v>0.77</v>
       </c>
     </row>
@@ -3406,7 +3426,7 @@
       <c r="A25" s="9">
         <v>930809</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="15">
         <v>0.8</v>
       </c>
     </row>
@@ -3414,7 +3434,7 @@
       <c r="A26" s="9">
         <v>968286</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="15">
         <v>0.82</v>
       </c>
     </row>
@@ -3422,7 +3442,7 @@
       <c r="A27" s="9">
         <v>953776</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="15">
         <v>0.99</v>
       </c>
     </row>
@@ -3430,7 +3450,7 @@
       <c r="A28" s="9">
         <v>942993</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="15">
         <v>0.94</v>
       </c>
     </row>
@@ -3438,7 +3458,7 @@
       <c r="A29" s="9">
         <v>955635</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="15">
         <v>0.85</v>
       </c>
     </row>
@@ -3446,7 +3466,7 @@
       <c r="A30" s="9">
         <v>955636</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="15">
         <v>0.99</v>
       </c>
     </row>
@@ -3454,7 +3474,7 @@
       <c r="A31" s="9">
         <v>962389</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="15">
         <v>1</v>
       </c>
     </row>
